--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/66/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/66/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.58901</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5589.01</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.66717</v>
+        <v>5.880800000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.17</v>
+        <v>5880.8</v>
       </c>
     </row>
     <row r="9">
@@ -532,296 +532,296 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.460890000000001</v>
+        <v>6.11924</v>
       </c>
       <c r="C9" t="n">
-        <v>7460.89</v>
+        <v>6119.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247958</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.074160000000001</v>
+        <v>6.25158</v>
       </c>
       <c r="C10" t="n">
-        <v>8074.16</v>
+        <v>6251.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278883</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>8.73767</v>
+        <v>6.34969</v>
       </c>
       <c r="C11" t="n">
-        <v>8737.67</v>
+        <v>6349.69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309808</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>9.083290000000002</v>
+        <v>6.414779999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9083.290000000001</v>
+        <v>6414.78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340733</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>9.35408</v>
+        <v>6.45678</v>
       </c>
       <c r="C13" t="n">
-        <v>9354.08</v>
+        <v>6456.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371658</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>9.54053</v>
+        <v>6.47203</v>
       </c>
       <c r="C14" t="n">
-        <v>9540.530000000001</v>
+        <v>6472.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402583</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>9.64512</v>
+        <v>6.47842</v>
       </c>
       <c r="C15" t="n">
-        <v>9645.120000000001</v>
+        <v>6478.42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433508</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>9.73268</v>
+        <v>6.475770000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9732.68</v>
+        <v>6475.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464433</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>9.79598</v>
+        <v>6.467510000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>9795.98</v>
+        <v>6467.51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495358</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>9.843590000000001</v>
+        <v>6.457520000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>9843.59</v>
+        <v>6457.52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5262829999999999</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>9.889049999999999</v>
+        <v>6.44525</v>
       </c>
       <c r="C19" t="n">
-        <v>9889.049999999999</v>
+        <v>6445.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557208</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>9.92529</v>
+        <v>6.43201</v>
       </c>
       <c r="C20" t="n">
-        <v>9925.290000000001</v>
+        <v>6432.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588133</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>9.95792</v>
+        <v>6.417380000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>9957.92</v>
+        <v>6417.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619175</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>9.9831</v>
+        <v>6.4015</v>
       </c>
       <c r="C22" t="n">
-        <v>9983.1</v>
+        <v>6401.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650348</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0059</v>
+        <v>6.38465</v>
       </c>
       <c r="C23" t="n">
-        <v>10005.9</v>
+        <v>6384.65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681521</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0257</v>
+        <v>6.36727</v>
       </c>
       <c r="C24" t="n">
-        <v>10025.7</v>
+        <v>6367.27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126980000000001</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>10.0425</v>
+        <v>6.34918</v>
       </c>
       <c r="C25" t="n">
-        <v>10042.5</v>
+        <v>6349.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74387</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>10.0565</v>
+        <v>6.330229999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>10056.5</v>
+        <v>6330.23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775047</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0681</v>
+        <v>6.31038</v>
       </c>
       <c r="C27" t="n">
-        <v>10068.1</v>
+        <v>6310.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80622</v>
+        <v>0.80623</v>
       </c>
       <c r="B28" t="n">
-        <v>10.0777</v>
+        <v>6.28985</v>
       </c>
       <c r="C28" t="n">
-        <v>10077.7</v>
+        <v>6289.85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837392</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>10.0852</v>
+        <v>6.26845</v>
       </c>
       <c r="C29" t="n">
-        <v>10085.2</v>
+        <v>6268.45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868569</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0905</v>
+        <v>6.24633</v>
       </c>
       <c r="C30" t="n">
-        <v>10090.5</v>
+        <v>6246.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899742</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>10.0941</v>
+        <v>6.22311</v>
       </c>
       <c r="C31" t="n">
-        <v>10094.1</v>
+        <v>6223.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930914</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0962</v>
+        <v>6.19875</v>
       </c>
       <c r="C32" t="n">
-        <v>10096.2</v>
+        <v>6198.75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962091</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>10.0965</v>
+        <v>6.17369</v>
       </c>
       <c r="C33" t="n">
-        <v>10096.5</v>
+        <v>6173.69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993264</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>10.0954</v>
+        <v>6.14766</v>
       </c>
       <c r="C34" t="n">
-        <v>10095.4</v>
+        <v>6147.66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>10.0929</v>
+        <v>6.12037</v>
       </c>
       <c r="C35" t="n">
-        <v>10092.9</v>
+        <v>6120.37</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0888</v>
+        <v>6.09207</v>
       </c>
       <c r="C36" t="n">
-        <v>10088.8</v>
+        <v>6092.07</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>10.0835</v>
+        <v>6.06278</v>
       </c>
       <c r="C37" t="n">
-        <v>10083.5</v>
+        <v>6062.78</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>10.0767</v>
+        <v>6.03227</v>
       </c>
       <c r="C38" t="n">
-        <v>10076.7</v>
+        <v>6032.27</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0686</v>
+        <v>6.00056</v>
       </c>
       <c r="C39" t="n">
-        <v>10068.6</v>
+        <v>6000.56</v>
       </c>
     </row>
     <row r="40">
@@ -873,692 +873,692 @@
         <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>10.0591</v>
+        <v>5.96773</v>
       </c>
       <c r="C40" t="n">
-        <v>10059.1</v>
+        <v>5967.73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21246</v>
+        <v>1.21281</v>
       </c>
       <c r="B41" t="n">
-        <v>10.048</v>
+        <v>5.93378</v>
       </c>
       <c r="C41" t="n">
-        <v>10048</v>
+        <v>5933.78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24343</v>
+        <v>1.24367</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0353</v>
+        <v>5.89895</v>
       </c>
       <c r="C42" t="n">
-        <v>10035.3</v>
+        <v>5898.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.2744</v>
+        <v>1.27481</v>
       </c>
       <c r="B43" t="n">
-        <v>10.0212</v>
+        <v>5.86251</v>
       </c>
       <c r="C43" t="n">
-        <v>10021.2</v>
+        <v>5862.51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30537</v>
+        <v>1.30571</v>
       </c>
       <c r="B44" t="n">
-        <v>10.0059</v>
+        <v>5.82521</v>
       </c>
       <c r="C44" t="n">
-        <v>10005.9</v>
+        <v>5825.21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33633</v>
+        <v>1.33678</v>
       </c>
       <c r="B45" t="n">
-        <v>9.989180000000001</v>
+        <v>5.78658</v>
       </c>
       <c r="C45" t="n">
-        <v>9989.18</v>
+        <v>5786.58</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3673</v>
+        <v>1.36779</v>
       </c>
       <c r="B46" t="n">
-        <v>9.971159999999999</v>
+        <v>5.74645</v>
       </c>
       <c r="C46" t="n">
-        <v>9971.16</v>
+        <v>5746.45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39827</v>
+        <v>1.39867</v>
       </c>
       <c r="B47" t="n">
-        <v>9.951639999999999</v>
+        <v>5.70491</v>
       </c>
       <c r="C47" t="n">
-        <v>9951.639999999999</v>
+        <v>5704.91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42924</v>
+        <v>1.42985</v>
       </c>
       <c r="B48" t="n">
-        <v>9.930700000000002</v>
+        <v>5.661420000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9930.700000000001</v>
+        <v>5661.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46021</v>
+        <v>1.4606</v>
       </c>
       <c r="B49" t="n">
-        <v>9.90807</v>
+        <v>5.61686</v>
       </c>
       <c r="C49" t="n">
-        <v>9908.07</v>
+        <v>5616.86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49117</v>
+        <v>1.49182</v>
       </c>
       <c r="B50" t="n">
-        <v>9.8834</v>
+        <v>5.57029</v>
       </c>
       <c r="C50" t="n">
-        <v>9883.4</v>
+        <v>5570.29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52214</v>
+        <v>1.52274</v>
       </c>
       <c r="B51" t="n">
-        <v>9.85698</v>
+        <v>5.52217</v>
       </c>
       <c r="C51" t="n">
-        <v>9856.98</v>
+        <v>5522.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55311</v>
+        <v>1.55373</v>
       </c>
       <c r="B52" t="n">
-        <v>9.828709999999999</v>
+        <v>5.47225</v>
       </c>
       <c r="C52" t="n">
-        <v>9828.709999999999</v>
+        <v>5472.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58408</v>
+        <v>1.58485</v>
       </c>
       <c r="B53" t="n">
-        <v>9.79874</v>
+        <v>5.42054</v>
       </c>
       <c r="C53" t="n">
-        <v>9798.74</v>
+        <v>5420.54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61504</v>
+        <v>1.61565</v>
       </c>
       <c r="B54" t="n">
-        <v>9.766950000000001</v>
+        <v>5.36724</v>
       </c>
       <c r="C54" t="n">
-        <v>9766.950000000001</v>
+        <v>5367.24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64601</v>
+        <v>1.64683</v>
       </c>
       <c r="B55" t="n">
-        <v>9.733360000000001</v>
+        <v>5.311529999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>9733.360000000001</v>
+        <v>5311.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67698</v>
+        <v>1.67761</v>
       </c>
       <c r="B56" t="n">
-        <v>9.697709999999999</v>
+        <v>5.25492</v>
       </c>
       <c r="C56" t="n">
-        <v>9697.709999999999</v>
+        <v>5254.92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70795</v>
+        <v>1.70888</v>
       </c>
       <c r="B57" t="n">
-        <v>9.659799999999999</v>
+        <v>5.195390000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>9659.799999999999</v>
+        <v>5195.39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73892</v>
+        <v>1.73955</v>
       </c>
       <c r="B58" t="n">
-        <v>9.61969</v>
+        <v>5.13524</v>
       </c>
       <c r="C58" t="n">
-        <v>9619.690000000001</v>
+        <v>5135.24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76988</v>
+        <v>1.77086</v>
       </c>
       <c r="B59" t="n">
-        <v>9.57728</v>
+        <v>5.07221</v>
       </c>
       <c r="C59" t="n">
-        <v>9577.280000000001</v>
+        <v>5072.21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80085</v>
+        <v>1.80158</v>
       </c>
       <c r="B60" t="n">
-        <v>9.53261</v>
+        <v>5.00883</v>
       </c>
       <c r="C60" t="n">
-        <v>9532.610000000001</v>
+        <v>5008.83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83148</v>
+        <v>1.83288</v>
       </c>
       <c r="B61" t="n">
-        <v>9.485719999999999</v>
+        <v>4.94269</v>
       </c>
       <c r="C61" t="n">
-        <v>9485.719999999999</v>
+        <v>4942.69</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86253</v>
+        <v>1.86372</v>
       </c>
       <c r="B62" t="n">
-        <v>9.435690000000001</v>
+        <v>4.87611</v>
       </c>
       <c r="C62" t="n">
-        <v>9435.690000000001</v>
+        <v>4876.11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89352</v>
+        <v>1.89488</v>
       </c>
       <c r="B63" t="n">
-        <v>9.38307</v>
+        <v>4.80755</v>
       </c>
       <c r="C63" t="n">
-        <v>9383.07</v>
+        <v>4807.55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92454</v>
+        <v>1.9259</v>
       </c>
       <c r="B64" t="n">
-        <v>9.327639999999999</v>
+        <v>4.73832</v>
       </c>
       <c r="C64" t="n">
-        <v>9327.639999999999</v>
+        <v>4738.32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95545</v>
+        <v>1.95665</v>
       </c>
       <c r="B65" t="n">
-        <v>9.269530000000001</v>
+        <v>4.66894</v>
       </c>
       <c r="C65" t="n">
-        <v>9269.530000000001</v>
+        <v>4668.94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98656</v>
+        <v>1.98797</v>
       </c>
       <c r="B66" t="n">
-        <v>9.207889999999999</v>
+        <v>4.59786</v>
       </c>
       <c r="C66" t="n">
-        <v>9207.889999999999</v>
+        <v>4597.86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01723</v>
+        <v>2.01843</v>
       </c>
       <c r="B67" t="n">
-        <v>9.143790000000001</v>
+        <v>4.52765</v>
       </c>
       <c r="C67" t="n">
-        <v>9143.790000000001</v>
+        <v>4527.65</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04852</v>
+        <v>2.04955</v>
       </c>
       <c r="B68" t="n">
-        <v>9.07549</v>
+        <v>4.45557</v>
       </c>
       <c r="C68" t="n">
-        <v>9075.49</v>
+        <v>4455.57</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07939</v>
+        <v>2.08097</v>
       </c>
       <c r="B69" t="n">
-        <v>9.004340000000001</v>
+        <v>4.3836</v>
       </c>
       <c r="C69" t="n">
-        <v>9004.34</v>
+        <v>4383.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11025</v>
+        <v>2.11109</v>
       </c>
       <c r="B70" t="n">
-        <v>8.929860000000001</v>
+        <v>4.31319</v>
       </c>
       <c r="C70" t="n">
-        <v>8929.860000000001</v>
+        <v>4313.19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14146</v>
+        <v>2.14282</v>
       </c>
       <c r="B71" t="n">
-        <v>8.8513</v>
+        <v>4.240550000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>8851.299999999999</v>
+        <v>4240.55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17245</v>
+        <v>2.17368</v>
       </c>
       <c r="B72" t="n">
-        <v>8.769959999999999</v>
+        <v>4.16913</v>
       </c>
       <c r="C72" t="n">
-        <v>8769.959999999999</v>
+        <v>4169.13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.2034</v>
+        <v>2.20408</v>
       </c>
       <c r="B73" t="n">
-        <v>8.684420000000001</v>
+        <v>4.09987</v>
       </c>
       <c r="C73" t="n">
-        <v>8684.42</v>
+        <v>4099.87</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23439</v>
+        <v>2.23596</v>
       </c>
       <c r="B74" t="n">
-        <v>8.595549999999999</v>
+        <v>4.02923</v>
       </c>
       <c r="C74" t="n">
-        <v>8595.549999999999</v>
+        <v>4029.23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26534</v>
+        <v>2.26668</v>
       </c>
       <c r="B75" t="n">
-        <v>8.50389</v>
+        <v>3.95969</v>
       </c>
       <c r="C75" t="n">
-        <v>8503.889999999999</v>
+        <v>3959.69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29652</v>
+        <v>2.2974</v>
       </c>
       <c r="B76" t="n">
-        <v>8.40803</v>
+        <v>3.89248</v>
       </c>
       <c r="C76" t="n">
-        <v>8408.030000000001</v>
+        <v>3892.48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32716</v>
+        <v>2.32855</v>
       </c>
       <c r="B77" t="n">
-        <v>8.310690000000001</v>
+        <v>3.82586</v>
       </c>
       <c r="C77" t="n">
-        <v>8310.690000000001</v>
+        <v>3825.86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3585</v>
+        <v>2.35964</v>
       </c>
       <c r="B78" t="n">
-        <v>8.208770000000001</v>
+        <v>3.75874</v>
       </c>
       <c r="C78" t="n">
-        <v>8208.77</v>
+        <v>3758.74</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38936</v>
+        <v>2.39072</v>
       </c>
       <c r="B79" t="n">
-        <v>8.105600000000001</v>
+        <v>3.69389</v>
       </c>
       <c r="C79" t="n">
-        <v>8105.6</v>
+        <v>3693.89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42039</v>
+        <v>2.42179</v>
       </c>
       <c r="B80" t="n">
-        <v>7.998930000000001</v>
+        <v>3.632</v>
       </c>
       <c r="C80" t="n">
-        <v>7998.93</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45066</v>
+        <v>2.45214</v>
       </c>
       <c r="B81" t="n">
-        <v>7.89297</v>
+        <v>3.57156</v>
       </c>
       <c r="C81" t="n">
-        <v>7892.97</v>
+        <v>3571.56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48195</v>
+        <v>2.48587</v>
       </c>
       <c r="B82" t="n">
-        <v>7.78165</v>
+        <v>3.50969</v>
       </c>
       <c r="C82" t="n">
-        <v>7781.65</v>
+        <v>3509.69</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51324</v>
+        <v>2.51787</v>
       </c>
       <c r="B83" t="n">
-        <v>7.667350000000001</v>
+        <v>3.45199</v>
       </c>
       <c r="C83" t="n">
-        <v>7667.35</v>
+        <v>3451.99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54396</v>
+        <v>2.54838</v>
       </c>
       <c r="B84" t="n">
-        <v>7.55454</v>
+        <v>3.39833</v>
       </c>
       <c r="C84" t="n">
-        <v>7554.54</v>
+        <v>3398.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57383</v>
+        <v>2.57825</v>
       </c>
       <c r="B85" t="n">
-        <v>7.44355</v>
+        <v>3.34709</v>
       </c>
       <c r="C85" t="n">
-        <v>7443.55</v>
+        <v>3347.09</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60534</v>
+        <v>2.60811</v>
       </c>
       <c r="B86" t="n">
-        <v>7.326000000000001</v>
+        <v>3.29728</v>
       </c>
       <c r="C86" t="n">
-        <v>7326</v>
+        <v>3297.28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63733</v>
+        <v>2.63798</v>
       </c>
       <c r="B87" t="n">
-        <v>7.206510000000001</v>
+        <v>3.24963</v>
       </c>
       <c r="C87" t="n">
-        <v>7206.51</v>
+        <v>3249.63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66849</v>
+        <v>2.66785</v>
       </c>
       <c r="B88" t="n">
-        <v>7.09016</v>
+        <v>3.20375</v>
       </c>
       <c r="C88" t="n">
-        <v>7090.16</v>
+        <v>3203.75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69889</v>
+        <v>2.69771</v>
       </c>
       <c r="B89" t="n">
-        <v>6.976970000000001</v>
+        <v>3.15994</v>
       </c>
       <c r="C89" t="n">
-        <v>6976.97</v>
+        <v>3159.94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72881</v>
+        <v>2.72758</v>
       </c>
       <c r="B90" t="n">
-        <v>6.86669</v>
+        <v>3.11809</v>
       </c>
       <c r="C90" t="n">
-        <v>6866.69</v>
+        <v>3118.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75962</v>
+        <v>2.75785</v>
       </c>
       <c r="B91" t="n">
-        <v>6.752140000000001</v>
+        <v>3.07959</v>
       </c>
       <c r="C91" t="n">
-        <v>6752.14</v>
+        <v>3079.59</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79253</v>
+        <v>2.78857</v>
       </c>
       <c r="B92" t="n">
-        <v>6.6334</v>
+        <v>3.04634</v>
       </c>
       <c r="C92" t="n">
-        <v>6633.4</v>
+        <v>3046.34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82365</v>
+        <v>2.82085</v>
       </c>
       <c r="B93" t="n">
-        <v>6.51806</v>
+        <v>3.02228</v>
       </c>
       <c r="C93" t="n">
-        <v>6518.06</v>
+        <v>3022.28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85474</v>
+        <v>2.85605</v>
       </c>
       <c r="B94" t="n">
-        <v>6.40609</v>
+        <v>3.00462</v>
       </c>
       <c r="C94" t="n">
-        <v>6406.09</v>
+        <v>3004.62</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88505</v>
+        <v>2.88977</v>
       </c>
       <c r="B95" t="n">
-        <v>6.2972</v>
+        <v>2.99374</v>
       </c>
       <c r="C95" t="n">
-        <v>6297.2</v>
+        <v>2993.74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9143</v>
+        <v>2.92177</v>
       </c>
       <c r="B96" t="n">
-        <v>6.1912</v>
+        <v>2.97911</v>
       </c>
       <c r="C96" t="n">
-        <v>6191.2</v>
+        <v>2979.11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9446</v>
+        <v>2.95377</v>
       </c>
       <c r="B97" t="n">
-        <v>6.08458</v>
+        <v>2.96356</v>
       </c>
       <c r="C97" t="n">
-        <v>6084.58</v>
+        <v>2963.56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97754</v>
+        <v>2.98577</v>
       </c>
       <c r="B98" t="n">
-        <v>5.968050000000001</v>
+        <v>2.95089</v>
       </c>
       <c r="C98" t="n">
-        <v>5968.05</v>
+        <v>2950.89</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00954</v>
+        <v>3.01777</v>
       </c>
       <c r="B99" t="n">
-        <v>5.855060000000001</v>
+        <v>2.93759</v>
       </c>
       <c r="C99" t="n">
-        <v>5855.06</v>
+        <v>2937.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04155</v>
+        <v>3.04977</v>
       </c>
       <c r="B100" t="n">
-        <v>5.7454</v>
+        <v>2.92148</v>
       </c>
       <c r="C100" t="n">
-        <v>5745.4</v>
+        <v>2921.48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07241</v>
+        <v>3.08177</v>
       </c>
       <c r="B101" t="n">
-        <v>5.63879</v>
+        <v>2.90548</v>
       </c>
       <c r="C101" t="n">
-        <v>5638.79</v>
+        <v>2905.48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10228</v>
+        <v>3.11377</v>
       </c>
       <c r="B102" t="n">
-        <v>5.5353</v>
+        <v>2.88702</v>
       </c>
       <c r="C102" t="n">
-        <v>5535.3</v>
+        <v>2887.02</v>
       </c>
     </row>
   </sheetData>
